--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -51,19 +51,19 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Как пользователь я хочу сортировку задач по дате</t>
+    <t>Как пользователь я хочу сортировку задач по дате чтобы не забывать про старые задачи</t>
   </si>
   <si>
-    <t>Как пользователь я хочу смену тем в приложении</t>
+    <t>Как пользователь я хочу смену тем в приложении чтобы повысить удобство пользования</t>
   </si>
   <si>
-    <t>Как пользователь я хочу группировку задач по сферам</t>
+    <t>Как пользователь я хочу группировку задач по сферам чтобы можно было сосредоточиться на конкретных задачах</t>
   </si>
   <si>
-    <t>Как пользователь я хочу иметь доступ к TODO не только с ПК</t>
+    <t>Как пользователь я хочу иметь доступ к TODO не только с ПК, чтобы следить за выполнением задач с телефона</t>
   </si>
   <si>
-    <t>Как пользователь я хочу напоминания целей</t>
+    <t>Как пользователь я хочу напоминания целей, чтобы не пропускать поставленные задачи</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,100 +1852,90 @@
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
@@ -1970,90 +1960,100 @@
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="B90:E90"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Как пользователь я хочу напоминания целей, чтобы не пропускать поставленные задачи</t>
+  </si>
+  <si>
+    <t>Как пользователь я хочу всплывающие уведомления о задачах при пользовании устройством чтобы не отвлекаться лишний раз</t>
+  </si>
+  <si>
+    <t>Как пользователь я хочу цветные категории чтобы задачи выглядели нагляднее</t>
+  </si>
+  <si>
+    <t>Как пользователь я хочу автоудаление задач по заданному таймеру чтобы самому не чистить их</t>
+  </si>
+  <si>
+    <t>Можно добавить перемещение задачи в другую категорию по таймеру</t>
   </si>
 </sst>
 </file>
@@ -486,7 +498,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +612,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
@@ -611,11 +623,15 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
@@ -625,11 +641,15 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
@@ -639,12 +659,18 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -1852,90 +1878,100 @@
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
@@ -1960,100 +1996,90 @@
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
